--- a/target/classes/files/producerInfo.xlsx
+++ b/target/classes/files/producerInfo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6B8E12-1204-45C1-88C9-5DA2E4A4BBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA47C9E-0695-4DAE-88A1-26318DE07E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,30 +15,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Marvel</t>
-  </si>
-  <si>
-    <t>Spiderman</t>
-  </si>
-  <si>
-    <t>Date Emission</t>
-  </si>
-  <si>
-    <t>Titre</t>
-  </si>
-  <si>
-    <t>Duree Emission (min)</t>
-  </si>
-  <si>
-    <t>Genre</t>
-  </si>
-  <si>
-    <t>Action</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test </t>
+  </si>
+  <si>
+    <t xml:space="preserve">test </t>
   </si>
 </sst>
 </file>
@@ -74,9 +74,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,70 +423,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>44885</v>
-      </c>
-      <c r="D2">
-        <v>120</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="D3">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>43882</v>
-      </c>
-      <c r="D3">
-        <v>90</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/files/producerInfo.xlsx
+++ b/target/classes/files/producerInfo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA47C9E-0695-4DAE-88A1-26318DE07E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FEC121-F2F0-4F19-AD8A-B74FB93CC03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,10 +35,10 @@
     <t>Test3</t>
   </si>
   <si>
-    <t xml:space="preserve">Test </t>
-  </si>
-  <si>
-    <t xml:space="preserve">test </t>
+    <t>testzka</t>
+  </si>
+  <si>
+    <t>Testdsd</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D3" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,16 +466,16 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>2</v>
       </c>
     </row>

--- a/target/classes/files/producerInfo.xlsx
+++ b/target/classes/files/producerInfo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FEC121-F2F0-4F19-AD8A-B74FB93CC03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E112C72-349E-4237-821A-1AB988AE7A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
     <t>testzka</t>
   </si>
   <si>
-    <t>Testdsd</t>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="A1:D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
